--- a/DataOverview/W4_ICtypesTRaC_withSE.xlsx
+++ b/DataOverview/W4_ICtypesTRaC_withSE.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">surfaceWaterBodyIntercalibrationTypeCode</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t xml:space="preserve">inapplicable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unpopulated</t>
   </si>
 </sst>
 </file>
@@ -455,7 +458,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2792</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>336</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4">
@@ -471,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -479,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>584</v>
+        <v>722</v>
       </c>
     </row>
     <row r="7">
@@ -495,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -503,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>152</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -511,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>1624</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="10">
@@ -519,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
@@ -527,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>8280</v>
+        <v>9344</v>
       </c>
     </row>
     <row r="12">
@@ -535,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>288</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13">
@@ -543,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>152</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14">
@@ -551,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>10304</v>
+        <v>10332</v>
       </c>
     </row>
     <row r="15">
@@ -559,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>640</v>
+        <v>722</v>
       </c>
     </row>
     <row r="16">
@@ -567,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>448</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17">
@@ -575,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>1104</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="18">
@@ -583,7 +586,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
@@ -591,7 +594,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>536</v>
+        <v>670</v>
       </c>
     </row>
     <row r="20">
@@ -599,7 +602,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>592</v>
+        <v>698</v>
       </c>
     </row>
     <row r="21">
@@ -607,7 +610,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>2200</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="22">
@@ -615,7 +618,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>4064</v>
+        <v>4836</v>
       </c>
     </row>
     <row r="23">
@@ -623,7 +626,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>352</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24">
@@ -631,7 +634,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +642,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -647,7 +650,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -655,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>160</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28">
@@ -663,7 +666,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>144</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29">
@@ -671,7 +674,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>768</v>
+        <v>950</v>
       </c>
     </row>
     <row r="30">
@@ -679,7 +682,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31">
@@ -687,7 +690,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>3944</v>
+        <v>4896</v>
       </c>
     </row>
     <row r="32">
@@ -695,13 +698,21 @@
         <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>12160</v>
+        <v>14326</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33"/>
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
       <c r="B33" t="n">
-        <v>8470</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34"/>
+      <c r="B34" t="n">
+        <v>706</v>
       </c>
     </row>
   </sheetData>
